--- a/fermentation_insights/TRY_results/spearman_HP_hexanol_corn.xlsx
+++ b/fermentation_insights/TRY_results/spearman_HP_hexanol_corn.xlsx
@@ -625,109 +625,109 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.02448825795303181</v>
+        <v>-0.334066456265825</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1632095808383233</v>
+        <v>-0.3472790851163405</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3619042636170545</v>
+        <v>0.7683417613670455</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.07849461797847192</v>
+        <v>0.3281490885963544</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.05674899499597998</v>
+        <v>-0.01506946827787311</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.3311195324781299</v>
+        <v>-0.3007297469189877</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.004907347629390517</v>
+        <v>0.01903562814251257</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.2111662846651386</v>
+        <v>-0.2927908031632127</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03264685058740235</v>
+        <v>0.1707650990603962</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.01028586514346057</v>
+        <v>0.004217872871491486</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.06011803247212989</v>
+        <v>-0.0252122928491714</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.03269965079860319</v>
+        <v>-0.06660497041988168</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.01309416437665751</v>
+        <v>-0.05653961815847263</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.01824160896643586</v>
+        <v>-0.03163692654770619</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01102382009528038</v>
+        <v>-0.02777252709010836</v>
       </c>
       <c r="R2" t="n">
-        <v>0.07288013152052608</v>
+        <v>0.0676063504254017</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.1023469693878775</v>
+        <v>-0.01233432133728535</v>
       </c>
       <c r="T2" t="n">
-        <v>0.05434264937059748</v>
+        <v>-0.02710196440785763</v>
       </c>
       <c r="U2" t="n">
-        <v>0.5849018276073105</v>
+        <v>0.3885206580826323</v>
       </c>
       <c r="V2" t="n">
-        <v>0.005755127020508082</v>
+        <v>-0.03146402985611942</v>
       </c>
       <c r="W2" t="n">
-        <v>0.03600292801171204</v>
+        <v>0.05814484057936232</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.08736457345829383</v>
+        <v>-0.04872173088692355</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.1054078456313825</v>
+        <v>-0.1255064860259441</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.02515469261877048</v>
+        <v>-0.04178531914127657</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.025499813999256</v>
+        <v>-0.05652915411661646</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.005607862431449726</v>
+        <v>-0.04988410353641415</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.06107141228564914</v>
+        <v>0.09273905895623583</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.01541535766143065</v>
+        <v>0.3784269857079428</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.05710669242676971</v>
+        <v>0.07495556382225529</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.3122289609158437</v>
+        <v>-0.2604954099816399</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.1598926715706863</v>
+        <v>-0.1300977043908176</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.005197268789075156</v>
+        <v>0.01114247656990628</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.05735197340789363</v>
+        <v>-0.03689304357217429</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.1334749018996076</v>
+        <v>0.4248621794487178</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.08777046308185232</v>
+        <v>0.4605953463813856</v>
       </c>
     </row>
     <row r="3">
@@ -737,112 +737,112 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.02448825795303181</v>
+        <v>-0.334066456265825</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2501738326953308</v>
+        <v>0.2811017004068016</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.351501278005112</v>
+        <v>-0.3369576998307993</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.281373189492758</v>
+        <v>-0.508252721010884</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07602068808275234</v>
+        <v>0.01511497245988984</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.2020343441373766</v>
+        <v>-0.1530972843891376</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5170072840291361</v>
+        <v>0.3740964083856335</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09222401689606759</v>
+        <v>0.00658505034020136</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05744403777615111</v>
+        <v>-0.05821396085584343</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.01701587606350425</v>
+        <v>-0.04514091656366626</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.02345078180312721</v>
+        <v>-0.03606542426169704</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04662076248304993</v>
+        <v>0.0788994515978064</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.08221607286429146</v>
+        <v>-0.0896125184500738</v>
       </c>
       <c r="P3" t="n">
-        <v>0.005072180288721155</v>
+        <v>0.02094200376801507</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1160364321457286</v>
+        <v>0.1275936303745215</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.05107921231684927</v>
+        <v>-0.04268868275473102</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.2877186228744915</v>
+        <v>-0.2787222348889395</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.09144929379717519</v>
+        <v>-0.01966289465157861</v>
       </c>
       <c r="U3" t="n">
-        <v>0.4072739490957964</v>
+        <v>0.3831274525098101</v>
       </c>
       <c r="V3" t="n">
-        <v>0.07537489349957399</v>
+        <v>0.05066977067908272</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.08935043740174961</v>
+        <v>-0.06697130788523153</v>
       </c>
       <c r="X3" t="n">
-        <v>0.003643982575930304</v>
+        <v>-0.03845832983331934</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.02083659534638138</v>
+        <v>-0.06038587354349417</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.01761635846543386</v>
+        <v>0.02963416653666615</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0001738566954267817</v>
+        <v>0.04477342709370837</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.01815914463657855</v>
+        <v>0.03897164388657555</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.03568670274681099</v>
+        <v>-0.004627602510410041</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.366127128508514</v>
+        <v>-0.5408695234780939</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.01576825507302029</v>
+        <v>-0.002103176412705651</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.04441419365677463</v>
+        <v>-0.01286635546542186</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.07429325717302869</v>
+        <v>-0.001849543398173593</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.0005330901323605294</v>
+        <v>-0.009957831831327325</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.01805104820419282</v>
+        <v>0.01032416929667719</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.1951570686282745</v>
+        <v>-0.3828807315229261</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.1032949731798927</v>
+        <v>-0.3856604226416906</v>
       </c>
     </row>
     <row r="4">
@@ -852,112 +852,112 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1632095808383233</v>
+        <v>-0.3472790851163405</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2501738326953308</v>
+        <v>0.2811017004068016</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.940061488245953</v>
+        <v>-0.5417053988215953</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.004416593666374665</v>
+        <v>-0.00228999315997264</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02293631574526298</v>
+        <v>-0.008702530810123241</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.04169056676226705</v>
+        <v>-0.1359327037308149</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03952441409765639</v>
+        <v>0.01987956751827007</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8029542198168793</v>
+        <v>0.660691250765003</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04224852099408398</v>
+        <v>0.01965790263161053</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05818573674294697</v>
+        <v>0.1899695918783675</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04373643094572378</v>
+        <v>0.03453921015684062</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.01225780903123612</v>
+        <v>-0.01342824571298285</v>
       </c>
       <c r="O4" t="n">
-        <v>0.07105718022872091</v>
+        <v>0.2390927003708015</v>
       </c>
       <c r="P4" t="n">
-        <v>0.02703370813483254</v>
+        <v>0.04252682610730443</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0611935247740991</v>
+        <v>0.04221760887043548</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.01939860559442238</v>
+        <v>-0.02966354265417062</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03383005532022128</v>
+        <v>0.01779463117852471</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.009320197280789123</v>
+        <v>-0.04161175044700179</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1284718418873675</v>
+        <v>0.2173053172212689</v>
       </c>
       <c r="V4" t="n">
-        <v>0.07100399601598406</v>
+        <v>0.1773874935499742</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.09361506246024984</v>
+        <v>-0.07997455989823959</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1240135840543362</v>
+        <v>0.06420467281869127</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.09792039168156673</v>
+        <v>0.2802807051228205</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.05527289309157236</v>
+        <v>0.02573223092892371</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.07179215916863667</v>
+        <v>0.07916402865611462</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.032437665750663</v>
+        <v>-0.02227554510218041</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.02034574538298153</v>
+        <v>-0.006305209220836883</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.004843603374413498</v>
+        <v>-0.02927550910203641</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.07874988299953199</v>
+        <v>-0.03697070788283153</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.06948910995643982</v>
+        <v>0.09137690950763803</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.02388316753267013</v>
+        <v>0.04939190956763827</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.07326451705806823</v>
+        <v>0.06372255889023556</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.01401605606422426</v>
+        <v>-0.003619790479161917</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.5364765459061837</v>
+        <v>-0.4654593978375913</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.0452935571742287</v>
+        <v>0.02498381193524774</v>
       </c>
     </row>
     <row r="5">
@@ -967,112 +967,112 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3619042636170545</v>
+        <v>0.7683417613670455</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.351501278005112</v>
+        <v>-0.3369576998307993</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.940061488245953</v>
+        <v>-0.5417053988215953</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01727075708302833</v>
+        <v>0.1669935319741279</v>
       </c>
       <c r="G5" t="n">
-        <v>0.009506630026520106</v>
+        <v>0.03951673406693627</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.02600832803331213</v>
+        <v>-0.1868400753603014</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04775078300313201</v>
+        <v>0.2414823419293677</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.7793034692138768</v>
+        <v>-0.4109183156732627</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0476129264517058</v>
+        <v>0.1580953523814095</v>
       </c>
       <c r="L5" t="n">
-        <v>0.009707174828699315</v>
+        <v>0.0244562898251593</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.03995708782835131</v>
+        <v>0.00848873795495182</v>
       </c>
       <c r="N5" t="n">
-        <v>0.005233364933459734</v>
+        <v>-0.04592130368521474</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02673850695402782</v>
+        <v>0.03168550274201097</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.01019524078096312</v>
+        <v>-0.001052932211728847</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.08729142116568467</v>
+        <v>-0.05625200100800403</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03479629918519674</v>
+        <v>0.05200110400441602</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.06156523826095305</v>
+        <v>-0.1557782871131485</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01463717854871419</v>
+        <v>-0.05845559382237529</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.05451372205488822</v>
+        <v>0.142559994239977</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.006800955203820815</v>
+        <v>0.04670668282673131</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1183711614846459</v>
+        <v>0.06746513386053545</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.1430245400981604</v>
+        <v>-0.06581834327337309</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.05300344401377605</v>
+        <v>-0.1559448477793911</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.05740717362869451</v>
+        <v>-0.01990193560774243</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.05932554930219721</v>
+        <v>-0.1008234432937732</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.01919345277381109</v>
+        <v>-0.03629208116832467</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0366000504002016</v>
+        <v>0.1261710966843867</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.02625860103440414</v>
+        <v>0.192436801747207</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.1034110376441506</v>
+        <v>0.1042100488401954</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.05227873711494846</v>
+        <v>0.1210861483445934</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0.04542392569570278</v>
+        <v>-0.01589430357721431</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.07572942291769168</v>
+        <v>-0.05705235620942484</v>
       </c>
       <c r="AI5" t="n">
-        <v>-0.02020961683846735</v>
+        <v>0.01845501782007128</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.5372854451417806</v>
+        <v>0.5926940827763311</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0.02596445585782343</v>
+        <v>0.4682534890139561</v>
       </c>
     </row>
     <row r="6">
@@ -1082,112 +1082,112 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.07849461797847192</v>
+        <v>0.3281490885963544</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.281373189492758</v>
+        <v>-0.508252721010884</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.004416593666374665</v>
+        <v>-0.00228999315997264</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01727075708302833</v>
+        <v>0.1669935319741279</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.01480921123684495</v>
+        <v>-0.02960959043836175</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.04300663602654411</v>
+        <v>-0.04541643766575066</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03453978615914464</v>
+        <v>-0.04184906339625358</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.03516618866475466</v>
+        <v>-0.02887624350497402</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.005143700574802299</v>
+        <v>-0.006491641966567866</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.01597081588326353</v>
+        <v>0.008755331021324085</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.01444133776535106</v>
+        <v>-0.03327142908571634</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01900750003000012</v>
+        <v>0.04230823323293293</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01851319405277621</v>
+        <v>0.02768075072300289</v>
       </c>
       <c r="P6" t="n">
-        <v>0.002639242556970228</v>
+        <v>0.007239292957171828</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.07589598358393433</v>
+        <v>-0.0674309577238309</v>
       </c>
       <c r="R6" t="n">
-        <v>0.08134218136872548</v>
+        <v>0.07127001308005232</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.01000352801411206</v>
+        <v>0.008409729638918556</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.0146126024504098</v>
+        <v>-0.01716784467137869</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.05884650738602954</v>
+        <v>-0.08409278437113749</v>
       </c>
       <c r="V6" t="n">
-        <v>0.09510642842571371</v>
+        <v>0.05863607454429818</v>
       </c>
       <c r="W6" t="n">
-        <v>0.09984702338809355</v>
+        <v>0.07697953991815967</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01707808431233725</v>
+        <v>0.04165715862863451</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0279128796515186</v>
+        <v>0.01364731858927436</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.02044923379693519</v>
+        <v>0.006215160860643443</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.06163819855279421</v>
+        <v>-0.08302660410641642</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.06412038448153792</v>
+        <v>-0.2602220008880036</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.01627763311053244</v>
+        <v>-0.00393687974751899</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.8635082860331441</v>
+        <v>0.9276638066552266</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.01761923847695391</v>
+        <v>-0.01609465637862552</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.06488387553550214</v>
+        <v>-0.009692870771483087</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.2614624218496874</v>
+        <v>0.05207099228396914</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.005773655094620378</v>
+        <v>0.004575090300361202</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.06714094056376226</v>
+        <v>0.03619905679622718</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.03118198072792291</v>
+        <v>-0.01182619130476522</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.06890360361441446</v>
+        <v>0.08986547946191785</v>
       </c>
     </row>
     <row r="7">
@@ -1197,19 +1197,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.05674899499597998</v>
+        <v>-0.01506946827787311</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07602068808275234</v>
+        <v>0.01511497245988984</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.02293631574526298</v>
+        <v>-0.008702530810123241</v>
       </c>
       <c r="E7" t="n">
-        <v>0.009506630026520106</v>
+        <v>0.03951673406693627</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.01480921123684495</v>
+        <v>-0.02960959043836175</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -1312,19 +1312,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.3311195324781299</v>
+        <v>-0.3007297469189877</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2020343441373766</v>
+        <v>-0.1530972843891376</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.04169056676226705</v>
+        <v>-0.1359327037308149</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.02600832803331213</v>
+        <v>-0.1868400753603014</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.04300663602654411</v>
+        <v>-0.04541643766575066</v>
       </c>
       <c r="G8" t="n">
         <v>-0.0228686354745419</v>
@@ -1427,19 +1427,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.004907347629390517</v>
+        <v>0.01903562814251257</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5170072840291361</v>
+        <v>0.3740964083856335</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03952441409765639</v>
+        <v>0.01987956751827007</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.04775078300313201</v>
+        <v>0.2414823419293677</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03453978615914464</v>
+        <v>-0.04184906339625358</v>
       </c>
       <c r="G9" t="n">
         <v>0.08910342841371366</v>
@@ -1542,19 +1542,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2111662846651386</v>
+        <v>-0.2927908031632127</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09222401689606759</v>
+        <v>0.00658505034020136</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8029542198168793</v>
+        <v>0.660691250765003</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7793034692138768</v>
+        <v>-0.4109183156732627</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.03516618866475466</v>
+        <v>-0.02887624350497402</v>
       </c>
       <c r="G10" t="n">
         <v>-0.01306565226260905</v>
@@ -1657,19 +1657,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03264685058740235</v>
+        <v>0.1707650990603962</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05744403777615111</v>
+        <v>-0.05821396085584343</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04224852099408398</v>
+        <v>0.01965790263161053</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0476129264517058</v>
+        <v>0.1580953523814095</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.005143700574802299</v>
+        <v>-0.006491641966567866</v>
       </c>
       <c r="G11" t="n">
         <v>-0.1083313453253813</v>
@@ -1772,19 +1772,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.01028586514346057</v>
+        <v>0.004217872871491486</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.01701587606350425</v>
+        <v>-0.04514091656366626</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05818573674294697</v>
+        <v>0.1899695918783675</v>
       </c>
       <c r="E12" t="n">
-        <v>0.009707174828699315</v>
+        <v>0.0244562898251593</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.01597081588326353</v>
+        <v>0.008755331021324085</v>
       </c>
       <c r="G12" t="n">
         <v>0.04719705278821115</v>
@@ -1887,19 +1887,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.06011803247212989</v>
+        <v>-0.0252122928491714</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.02345078180312721</v>
+        <v>-0.03606542426169704</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04373643094572378</v>
+        <v>0.03453921015684062</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.03995708782835131</v>
+        <v>0.00848873795495182</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01444133776535106</v>
+        <v>-0.03327142908571634</v>
       </c>
       <c r="G13" t="n">
         <v>0.01714826059304237</v>
@@ -2002,19 +2002,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03269965079860319</v>
+        <v>-0.06660497041988168</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04662076248304993</v>
+        <v>0.0788994515978064</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.01225780903123612</v>
+        <v>-0.01342824571298285</v>
       </c>
       <c r="E14" t="n">
-        <v>0.005233364933459734</v>
+        <v>-0.04592130368521474</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01900750003000012</v>
+        <v>0.04230823323293293</v>
       </c>
       <c r="G14" t="n">
         <v>-0.009399205596822387</v>
@@ -2117,19 +2117,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.01309416437665751</v>
+        <v>-0.05653961815847263</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.08221607286429146</v>
+        <v>-0.0896125184500738</v>
       </c>
       <c r="D15" t="n">
-        <v>0.07105718022872091</v>
+        <v>0.2390927003708015</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02673850695402782</v>
+        <v>0.03168550274201097</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01851319405277621</v>
+        <v>0.02768075072300289</v>
       </c>
       <c r="G15" t="n">
         <v>0.009240900963603855</v>
@@ -2232,19 +2232,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01824160896643586</v>
+        <v>-0.03163692654770619</v>
       </c>
       <c r="C16" t="n">
-        <v>0.005072180288721155</v>
+        <v>0.02094200376801507</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02703370813483254</v>
+        <v>0.04252682610730443</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.01019524078096312</v>
+        <v>-0.001052932211728847</v>
       </c>
       <c r="F16" t="n">
-        <v>0.002639242556970228</v>
+        <v>0.007239292957171828</v>
       </c>
       <c r="G16" t="n">
         <v>-0.06015153660614642</v>
@@ -2347,19 +2347,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01102382009528038</v>
+        <v>-0.02777252709010836</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1160364321457286</v>
+        <v>0.1275936303745215</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0611935247740991</v>
+        <v>0.04221760887043548</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.08729142116568467</v>
+        <v>-0.05625200100800403</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.07589598358393433</v>
+        <v>-0.0674309577238309</v>
       </c>
       <c r="G17" t="n">
         <v>0.02646932187728751</v>
@@ -2462,19 +2462,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.07288013152052608</v>
+        <v>0.0676063504254017</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.05107921231684927</v>
+        <v>-0.04268868275473102</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.01939860559442238</v>
+        <v>-0.02966354265417062</v>
       </c>
       <c r="E18" t="n">
-        <v>0.03479629918519674</v>
+        <v>0.05200110400441602</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08134218136872548</v>
+        <v>0.07127001308005232</v>
       </c>
       <c r="G18" t="n">
         <v>-0.0740436561746247</v>
@@ -2577,19 +2577,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.1023469693878775</v>
+        <v>-0.01233432133728535</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.2877186228744915</v>
+        <v>-0.2787222348889395</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03383005532022128</v>
+        <v>0.01779463117852471</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.06156523826095305</v>
+        <v>-0.1557782871131485</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01000352801411206</v>
+        <v>0.008409729638918556</v>
       </c>
       <c r="G19" t="n">
         <v>0.01246353785415142</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.05434264937059748</v>
+        <v>-0.02710196440785763</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.09144929379717519</v>
+        <v>-0.01966289465157861</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.009320197280789123</v>
+        <v>-0.04161175044700179</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01463717854871419</v>
+        <v>-0.05845559382237529</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0146126024504098</v>
+        <v>-0.01716784467137869</v>
       </c>
       <c r="G20" t="n">
         <v>-0.0212874131496526</v>
@@ -2807,19 +2807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5849018276073105</v>
+        <v>0.3885206580826323</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4072739490957964</v>
+        <v>0.3831274525098101</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1284718418873675</v>
+        <v>0.2173053172212689</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.05451372205488822</v>
+        <v>0.142559994239977</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.05884650738602954</v>
+        <v>-0.08409278437113749</v>
       </c>
       <c r="G21" t="n">
         <v>-0.03526689306757227</v>
@@ -2922,19 +2922,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.005755127020508082</v>
+        <v>-0.03146402985611942</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07537489349957399</v>
+        <v>0.05066977067908272</v>
       </c>
       <c r="D22" t="n">
-        <v>0.07100399601598406</v>
+        <v>0.1773874935499742</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.006800955203820815</v>
+        <v>0.04670668282673131</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09510642842571371</v>
+        <v>0.05863607454429818</v>
       </c>
       <c r="G22" t="n">
         <v>0.02758964635858543</v>
@@ -3037,19 +3037,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.03600292801171204</v>
+        <v>0.05814484057936232</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.08935043740174961</v>
+        <v>-0.06697130788523153</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.09361506246024984</v>
+        <v>-0.07997455989823959</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1183711614846459</v>
+        <v>0.06746513386053545</v>
       </c>
       <c r="F23" t="n">
-        <v>0.09984702338809355</v>
+        <v>0.07697953991815967</v>
       </c>
       <c r="G23" t="n">
         <v>0.06868702674810699</v>
@@ -3152,19 +3152,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.08736457345829383</v>
+        <v>-0.04872173088692355</v>
       </c>
       <c r="C24" t="n">
-        <v>0.003643982575930304</v>
+        <v>-0.03845832983331934</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1240135840543362</v>
+        <v>0.06420467281869127</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.1430245400981604</v>
+        <v>-0.06581834327337309</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01707808431233725</v>
+        <v>0.04165715862863451</v>
       </c>
       <c r="G24" t="n">
         <v>0.02887518750075</v>
@@ -3267,19 +3267,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.1054078456313825</v>
+        <v>-0.1255064860259441</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.02083659534638138</v>
+        <v>-0.06038587354349417</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09792039168156673</v>
+        <v>0.2802807051228205</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.05300344401377605</v>
+        <v>-0.1559448477793911</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0279128796515186</v>
+        <v>0.01364731858927436</v>
       </c>
       <c r="G25" t="n">
         <v>0.01226644906579626</v>
@@ -3382,19 +3382,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.02515469261877048</v>
+        <v>-0.04178531914127657</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01761635846543386</v>
+        <v>0.02963416653666615</v>
       </c>
       <c r="D26" t="n">
-        <v>0.05527289309157236</v>
+        <v>0.02573223092892371</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.05740717362869451</v>
+        <v>-0.01990193560774243</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02044923379693519</v>
+        <v>0.006215160860643443</v>
       </c>
       <c r="G26" t="n">
         <v>0.01696845187380749</v>
@@ -3497,19 +3497,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.025499813999256</v>
+        <v>-0.05652915411661646</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0001738566954267817</v>
+        <v>0.04477342709370837</v>
       </c>
       <c r="D27" t="n">
-        <v>0.07179215916863667</v>
+        <v>0.07916402865611462</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.05932554930219721</v>
+        <v>-0.1008234432937732</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.06163819855279421</v>
+        <v>-0.08302660410641642</v>
       </c>
       <c r="G27" t="n">
         <v>-0.004993555974223897</v>
@@ -3612,19 +3612,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.005607862431449726</v>
+        <v>-0.04988410353641415</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01815914463657855</v>
+        <v>0.03897164388657555</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.032437665750663</v>
+        <v>-0.02227554510218041</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01919345277381109</v>
+        <v>-0.03629208116832467</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.06412038448153792</v>
+        <v>-0.2602220008880036</v>
       </c>
       <c r="G28" t="n">
         <v>0.03612811251245005</v>
@@ -3727,19 +3727,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.06107141228564914</v>
+        <v>0.09273905895623583</v>
       </c>
       <c r="C29" t="n">
-        <v>0.03568670274681099</v>
+        <v>-0.004627602510410041</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.02034574538298153</v>
+        <v>-0.006305209220836883</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0366000504002016</v>
+        <v>0.1261710966843867</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01627763311053244</v>
+        <v>-0.00393687974751899</v>
       </c>
       <c r="G29" t="n">
         <v>0.05674179496717987</v>
@@ -3842,19 +3842,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.01541535766143065</v>
+        <v>0.3784269857079428</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.366127128508514</v>
+        <v>-0.5408695234780939</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.004843603374413498</v>
+        <v>-0.02927550910203641</v>
       </c>
       <c r="E30" t="n">
-        <v>0.02625860103440414</v>
+        <v>0.192436801747207</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8635082860331441</v>
+        <v>0.9276638066552266</v>
       </c>
       <c r="G30" t="n">
         <v>-0.03504887619550478</v>
@@ -3957,19 +3957,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.05710669242676971</v>
+        <v>0.07495556382225529</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01576825507302029</v>
+        <v>-0.002103176412705651</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.07874988299953199</v>
+        <v>-0.03697070788283153</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1034110376441506</v>
+        <v>0.1042100488401954</v>
       </c>
       <c r="F31" t="n">
-        <v>0.01761923847695391</v>
+        <v>-0.01609465637862552</v>
       </c>
       <c r="G31" t="n">
         <v>0.04266468265873063</v>
@@ -4072,19 +4072,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.3122289609158437</v>
+        <v>-0.2604954099816399</v>
       </c>
       <c r="C32" t="n">
-        <v>0.04441419365677463</v>
+        <v>-0.01286635546542186</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06948910995643982</v>
+        <v>0.09137690950763803</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.05227873711494846</v>
+        <v>0.1210861483445934</v>
       </c>
       <c r="F32" t="n">
-        <v>0.06488387553550214</v>
+        <v>-0.009692870771483087</v>
       </c>
       <c r="G32" t="n">
         <v>0.02212693650774603</v>
@@ -4187,19 +4187,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.1598926715706863</v>
+        <v>-0.1300977043908176</v>
       </c>
       <c r="C33" t="n">
-        <v>0.07429325717302869</v>
+        <v>-0.001849543398173593</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02388316753267013</v>
+        <v>0.04939190956763827</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.04542392569570278</v>
+        <v>-0.01589430357721431</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2614624218496874</v>
+        <v>0.05207099228396914</v>
       </c>
       <c r="G33" t="n">
         <v>-0.001653510614042456</v>
@@ -4302,19 +4302,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.005197268789075156</v>
+        <v>0.01114247656990628</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0005330901323605294</v>
+        <v>-0.009957831831327325</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07326451705806823</v>
+        <v>0.06372255889023556</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.07572942291769168</v>
+        <v>-0.05705235620942484</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.005773655094620378</v>
+        <v>0.004575090300361202</v>
       </c>
       <c r="G34" t="n">
         <v>0.004860499441997768</v>
@@ -4417,19 +4417,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.05735197340789363</v>
+        <v>-0.03689304357217429</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01805104820419282</v>
+        <v>0.01032416929667719</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01401605606422426</v>
+        <v>-0.003619790479161917</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.02020961683846735</v>
+        <v>0.01845501782007128</v>
       </c>
       <c r="F35" t="n">
-        <v>0.06714094056376226</v>
+        <v>0.03619905679622718</v>
       </c>
       <c r="G35" t="n">
         <v>0.01461692246768987</v>
@@ -4532,19 +4532,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1334749018996076</v>
+        <v>0.4248621794487178</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.1951570686282745</v>
+        <v>-0.3828807315229261</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.5364765459061837</v>
+        <v>-0.4654593978375913</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5372854451417806</v>
+        <v>0.5926940827763311</v>
       </c>
       <c r="F36" t="n">
-        <v>0.03118198072792291</v>
+        <v>-0.01182619130476522</v>
       </c>
       <c r="G36" t="n">
         <v>0.04644709778839115</v>
@@ -4647,19 +4647,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.08777046308185232</v>
+        <v>0.4605953463813856</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.1032949731798927</v>
+        <v>-0.3856604226416906</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0452935571742287</v>
+        <v>0.02498381193524774</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.02596445585782343</v>
+        <v>0.4682534890139561</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06890360361441446</v>
+        <v>0.08986547946191785</v>
       </c>
       <c r="G37" t="n">
         <v>0.02651617006468026</v>
